--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediazves\Documents\workspace-sts-4\pruebas1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8BBE2-A21C-4D5D-BFA1-AD6620E73A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080512B-BB16-488D-A2B6-BCA01AD5A4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>hola</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>loca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buenas </t>
   </si>
 </sst>
 </file>
@@ -357,35 +360,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
